--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T08:41:35+00:00</t>
+    <t>2025-10-09T09:07:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T09:07:51+00:00</t>
+    <t>2025-10-09T12:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T12:26:29+00:00</t>
+    <t>2025-10-09T16:04:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1997,7 +1997,7 @@
     <t>Observation.component:ModeOfTransport.value[x]:valueCodeableConcept</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/mode-of-transport-vs</t>
+    <t>http://hl7.org/fhir/ValueSet/PH-RoadSafety-ModeOfTransport</t>
   </si>
   <si>
     <t>Observation.component:ModeOfTransport.dataAbsentReason</t>
@@ -2042,7 +2042,7 @@
     <t>Observation.component:Outcome.value[x]:valueCodeableConcept</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/outcome-vs</t>
+    <t>http://hl7.org/fhir/ValueSet/PH-RoadSafety-Outcome</t>
   </si>
   <si>
     <t>Observation.component:Outcome.dataAbsentReason</t>
@@ -2123,7 +2123,7 @@
     <t>Observation.component:CollisionType.value[x]:valueCodeableConcept</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/collision-type-vs</t>
+    <t>http://hl7.org/fhir/ValueSet/PH-RoadSafety-CollisionType</t>
   </si>
   <si>
     <t>Observation.component:CollisionType.dataAbsentReason</t>
@@ -2566,7 +2566,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.2734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.60546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T06:06:11+00:00</t>
+    <t>2025-10-15T08:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -692,7 +692,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-patient)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Patient)
 </t>
   </si>
   <si>
@@ -746,7 +746,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-encounter)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Encounter)
 </t>
   </si>
   <si>

--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T02:17:32+00:00</t>
+    <t>2025-10-21T04:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T04:48:52+00:00</t>
+    <t>2025-10-21T09:02:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RS-Observation.xlsx
+++ b/StructureDefinition-RS-Observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T09:02:18+00:00</t>
+    <t>2025-10-21T09:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
